--- a/Profesores.xlsx
+++ b/Profesores.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>cedula_profesor</t>
   </si>
@@ -39,50 +39,104 @@
     <t>telefono_profesor</t>
   </si>
   <si>
-    <t>estatus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saul </t>
-  </si>
-  <si>
-    <t>Perez</t>
-  </si>
-  <si>
-    <t>Howland</t>
-  </si>
-  <si>
-    <t>Luke</t>
-  </si>
-  <si>
-    <t>Patch</t>
-  </si>
-  <si>
-    <t>Cipriano</t>
-  </si>
-  <si>
-    <t>Aegan</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Ares</t>
-  </si>
-  <si>
-    <t>Hidago</t>
-  </si>
-  <si>
-    <t>Will</t>
-  </si>
-  <si>
-    <t>Traynor</t>
+    <t>04121647082</t>
+  </si>
+  <si>
+    <t>04165520375</t>
+  </si>
+  <si>
+    <t>04145162122</t>
+  </si>
+  <si>
+    <t>04165506816</t>
+  </si>
+  <si>
+    <t>04164579469</t>
+  </si>
+  <si>
+    <t>04166509328</t>
+  </si>
+  <si>
+    <t>04168580821</t>
+  </si>
+  <si>
+    <t>04268387382</t>
+  </si>
+  <si>
+    <t>04161503847</t>
+  </si>
+  <si>
+    <t>08627938</t>
+  </si>
+  <si>
+    <t>05116367</t>
+  </si>
+  <si>
+    <t>09708093</t>
+  </si>
+  <si>
+    <t>07403069</t>
+  </si>
+  <si>
+    <t>ANABEL</t>
+  </si>
+  <si>
+    <t>ABARCA</t>
+  </si>
+  <si>
+    <t>JENNY</t>
+  </si>
+  <si>
+    <t>ACOSTA</t>
+  </si>
+  <si>
+    <t>LISBETH</t>
+  </si>
+  <si>
+    <t>ACURERO</t>
+  </si>
+  <si>
+    <t>JOHANNA</t>
+  </si>
+  <si>
+    <t>ALASTRE</t>
+  </si>
+  <si>
+    <t>YAJHAYRA</t>
+  </si>
+  <si>
+    <t>ALDANA</t>
+  </si>
+  <si>
+    <t>JOSÉ</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>ALENIS</t>
+  </si>
+  <si>
+    <t>AREVALO</t>
+  </si>
+  <si>
+    <t>JAIRO</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>EVA</t>
+  </si>
+  <si>
+    <t>ARRIECHE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +148,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,9 +180,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,110 +497,132 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>13519545</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>789068</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>12706637</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>456</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>154328</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>14880601</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>12244128</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>365754</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>567542</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>12345</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>765282</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>11260305</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D5">
-        <v>7654323</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>862547</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>764234</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5432287</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>8765423</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
